--- a/src/test/resources/InputData.xlsx
+++ b/src/test/resources/InputData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="add_employee" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -30,10 +30,16 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://opensource-demo.orangehrmlive.com/</t>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>EmpID</t>
+  </si>
+  <si>
+    <t>Sachin</t>
   </si>
 </sst>
 </file>
@@ -372,38 +378,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -414,10 +413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:A7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,19 +425,41 @@
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
